--- a/docs/importantes/Maestro de documentos fase 1.xlsx
+++ b/docs/importantes/Maestro de documentos fase 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pryectos print(nul)\docs\importantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0E02E43-37DA-4160-82B0-664F663D7E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9A47E6-FA36-4649-A394-67963D28ADEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63C96467-E221-425A-A16B-7A7D30A6D2C9}"/>
   </bookViews>
@@ -201,6 +201,629 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>904875</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>581025</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>742950</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>885825</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>590550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>885825</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>638175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>685800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>866775</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>685800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>962025</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>723900</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>962025</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>742950</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Object 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>742950</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Object 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>952500</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>828675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>733425</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Object 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E79CEF-D73D-4E62-B0EE-4983AC7BFAF5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,11 +1122,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1D86B5-8308-40BA-9987-11BE45D123E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1D86B5-8308-40BA-9987-11BE45D123E5}">
   <dimension ref="B3:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +1136,7 @@
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -539,7 +1162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -560,7 +1183,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -581,7 +1204,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -602,7 +1225,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -623,7 +1246,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -644,7 +1267,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -665,7 +1288,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -686,7 +1309,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -707,7 +1330,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -728,7 +1351,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -749,7 +1372,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
@@ -772,5 +1395,285 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>581025</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1019175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>742950</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>885825</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>590550</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>885825</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>638175</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>685800</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId14">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>866775</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>685800</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId16">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>962025</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>723900</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId18">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>962025</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>742950</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId20">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>942975</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>742950</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId22">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>952500</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>828675</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId24">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>942975</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>733425</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>